--- a/Ben_pizza/data/inventory.xlsx
+++ b/Ben_pizza/data/inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\SQL-Projects\Ben_pizza\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF33A19-94F2-4136-A85C-8E6C6E4CD758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E72A417-8CD5-479C-AC78-A2D102CD5ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -410,8 +410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -589,7 +589,7 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>3000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
